--- a/qa_log.xlsx
+++ b/qa_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,42 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>pagi</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Berbagai olahan bakso, seperti bakso pak kumis, Oskeb King</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>selamat siang</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Selamat Siang :)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>selamat malam</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Selamat Siang :)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/qa_log.xlsx
+++ b/qa_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,42 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>apa dong</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Maaf, saya tidak mengerti</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>hai</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1. Dr. Ir. Rizal Fahmi, M.Sc.\n2. Dr. Ir. Yuliana, M.Sc.\n3. Dr. Ir. Yuliana, M.Sc.\n4. Dr. Ir. Yuliana, M.Sc.\n5. Dr. Ir. Yuliana, M.Sc.\n6. Dr. Ir. Yuliana, M.Sc.\n7. Dr. Ir. Yuliana, M.Sc.\n8. Dr. Ir. Yuliana, M.Sc.\n9. Dr. Ir. Yuliana, M.Sc.\n10. Dr. Ir. Yuliana, M.Sc</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>semangat</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1 Persiapkan berkas-berkas yang diperlukan seperti foto berwarna fotokopi KTP fotokopi KTM dan fotokopi sertifikat kelulusan 2 Datang ke kantor administrasi universitas dan ajukan permohonan untuk membuat kartu tanda mahasiswa 3 Isi formulir permohonan dan lampirkan berkas-berkas yang diperlukan 4 Tunggu hingga kartu tanda mahasiswa Anda selesai dicetak 5 Ambil kartu tanda mahasiswa Anda dan tanda tangani di bagian belakangnya 6 Simpan kartu tanda mahasiswa Anda dengan baik dan gunakan untuk berbagai keperluan</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
